--- a/0_data/8_predictions/comparison_model_evaluation.xlsx
+++ b/0_data/8_predictions/comparison_model_evaluation.xlsx
@@ -1054,22 +1054,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>132.48</v>
+        <v>4.48</v>
       </c>
       <c r="C18" t="n">
-        <v>133.99</v>
+        <v>5.99</v>
       </c>
       <c r="D18" t="n">
-        <v>132.79</v>
+        <v>4.79</v>
       </c>
       <c r="E18" t="n">
-        <v>132.6</v>
+        <v>4.6</v>
       </c>
       <c r="F18" t="n">
-        <v>40.66</v>
+        <v>4.66</v>
       </c>
       <c r="G18" t="n">
-        <v>42.07</v>
+        <v>6.07</v>
       </c>
     </row>
     <row r="19">
